--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/07,25/14,07,25 ПОКОМ КИ Сочи/дв 14,07,25 счрсч пок ки от филиала (+Химич).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/07,25/14,07,25 ПОКОМ КИ Сочи/дв 14,07,25 счрсч пок ки от филиала (+Химич).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\14,07,25 ПОКОМ КИ Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\07,25\14,07,25 ПОКОМ КИ Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F206D-0A22-450C-B4C9-B8E155CACA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08A3D1-4FC1-48CA-8FB0-A35761792FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="161">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -512,6 +512,9 @@
   <si>
     <t>17,07,</t>
   </si>
+  <si>
+    <t>переходящий запас</t>
+  </si>
 </sst>
 </file>
 
@@ -990,9 +993,10 @@
     <col min="20" max="20" width="21" customWidth="1"/>
     <col min="21" max="22" width="5" customWidth="1"/>
     <col min="23" max="32" width="6" customWidth="1"/>
-    <col min="33" max="33" width="49.42578125" customWidth="1"/>
+    <col min="33" max="33" width="37.7109375" customWidth="1"/>
     <col min="34" max="34" width="7" customWidth="1"/>
-    <col min="35" max="51" width="3" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" customWidth="1"/>
+    <col min="36" max="51" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1030,7 +1034,9 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
+      <c r="AI1" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -1402,7 +1408,10 @@
         <f>SUM(AH6:AH499)</f>
         <v>5782</v>
       </c>
-      <c r="AI5" s="1"/>
+      <c r="AI5" s="4">
+        <f>SUM(AI6:AI499)</f>
+        <v>2724.5909999999985</v>
+      </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -1513,7 +1522,10 @@
         <f>ROUND(G6*R6,0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="1"/>
+      <c r="AI6" s="1">
+        <f>P6*G6*3</f>
+        <v>17.7666</v>
+      </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -1629,7 +1641,10 @@
         <f t="shared" ref="AH7:AH70" si="8">ROUND(G7*R7,0)</f>
         <v>36</v>
       </c>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="1">
+        <f t="shared" ref="AI7:AI8" si="9">P7*G7*3</f>
+        <v>29.508600000000001</v>
+      </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
@@ -1745,7 +1760,10 @@
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="1">
+        <f t="shared" si="9"/>
+        <v>86.4</v>
+      </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -1964,7 +1982,10 @@
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="AI10" s="1"/>
+      <c r="AI10" s="1">
+        <f>P10*G10*3</f>
+        <v>79.650000000000006</v>
+      </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -2129,7 +2150,7 @@
         <v>66.8</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" ref="Q12" si="9">13*P12-F12</f>
+        <f t="shared" ref="Q12" si="10">13*P12-F12</f>
         <v>509.4</v>
       </c>
       <c r="R12" s="5">
@@ -2183,7 +2204,10 @@
         <f t="shared" si="8"/>
         <v>229</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="1">
+        <f t="shared" ref="AI12:AI15" si="11">P12*G12*3</f>
+        <v>90.179999999999993</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -2290,7 +2314,10 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -2404,7 +2431,10 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AI14" s="1"/>
+      <c r="AI14" s="1">
+        <f t="shared" si="11"/>
+        <v>2.16</v>
+      </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -2515,7 +2545,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="1">
+        <f t="shared" si="11"/>
+        <v>1.7340000000000002</v>
+      </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -2729,7 +2762,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="1"/>
+      <c r="AI17" s="1">
+        <f t="shared" ref="AI17:AI20" si="12">P17*G17*3</f>
+        <v>3.96</v>
+      </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
@@ -2844,7 +2880,10 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9200000000000004</v>
+      </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -2958,7 +2997,10 @@
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="1">
+        <f t="shared" si="12"/>
+        <v>9.0299999999999994</v>
+      </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -3020,7 +3062,7 @@
         <v>5.8</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" ref="Q20" si="10">13*P20-F20</f>
+        <f t="shared" ref="Q20" si="13">13*P20-F20</f>
         <v>16.399999999999991</v>
       </c>
       <c r="R20" s="5">
@@ -3074,7 +3116,10 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AI20" s="1"/>
+      <c r="AI20" s="1">
+        <f t="shared" si="12"/>
+        <v>2.9580000000000002</v>
+      </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
@@ -3292,7 +3337,10 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AI22" s="1"/>
+      <c r="AI22" s="1">
+        <f t="shared" ref="AI22:AI28" si="14">P22*G22*3</f>
+        <v>1.8900000000000001</v>
+      </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -3354,7 +3402,7 @@
         <v>2.4</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" ref="Q23:Q26" si="11">13*P23-F23</f>
+        <f t="shared" ref="Q23:Q26" si="15">13*P23-F23</f>
         <v>14.2</v>
       </c>
       <c r="R23" s="5">
@@ -3408,7 +3456,10 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="1">
+        <f t="shared" si="14"/>
+        <v>2.52</v>
+      </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
@@ -3523,7 +3574,10 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AI24" s="1"/>
+      <c r="AI24" s="1">
+        <f t="shared" si="14"/>
+        <v>1.6799999999999997</v>
+      </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -3585,7 +3639,7 @@
         <v>93.221400000000003</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>775.0902000000001</v>
       </c>
       <c r="R25" s="5">
@@ -3640,7 +3694,10 @@
         <f t="shared" si="8"/>
         <v>570</v>
       </c>
-      <c r="AI25" s="1"/>
+      <c r="AI25" s="1">
+        <f t="shared" si="14"/>
+        <v>279.66419999999999</v>
+      </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -3704,7 +3761,7 @@
         <v>25.381799999999998</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>70.213399999999979</v>
       </c>
       <c r="R26" s="18">
@@ -3758,7 +3815,10 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="AI26" s="1"/>
+      <c r="AI26" s="1">
+        <f t="shared" si="14"/>
+        <v>76.145399999999995</v>
+      </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -3875,7 +3935,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="1"/>
+      <c r="AI27" s="1">
+        <f t="shared" si="14"/>
+        <v>0.21719999999999998</v>
+      </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -3989,7 +4052,10 @@
         <f t="shared" si="8"/>
         <v>377</v>
       </c>
-      <c r="AI28" s="1"/>
+      <c r="AI28" s="1">
+        <f t="shared" si="14"/>
+        <v>114.14999999999999</v>
+      </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
@@ -4208,7 +4274,10 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="AI30" s="1"/>
+      <c r="AI30" s="1">
+        <f>P30*G30*3</f>
+        <v>20.587800000000001</v>
+      </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
@@ -4427,7 +4496,10 @@
         <f t="shared" si="8"/>
         <v>853</v>
       </c>
-      <c r="AI32" s="1"/>
+      <c r="AI32" s="1">
+        <f>P32*G32*3</f>
+        <v>319.78740000000005</v>
+      </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -4742,7 +4814,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="1"/>
+      <c r="AI35" s="1">
+        <f t="shared" ref="AI35:AI39" si="16">P35*G35*3</f>
+        <v>2.31</v>
+      </c>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
@@ -4802,7 +4877,7 @@
         <v>53.6</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" ref="Q36:Q39" si="12">13*P36-F36</f>
+        <f t="shared" ref="Q36:Q39" si="17">13*P36-F36</f>
         <v>359.80000000000007</v>
       </c>
       <c r="R36" s="5">
@@ -4856,7 +4931,10 @@
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="AI36" s="1"/>
+      <c r="AI36" s="1">
+        <f t="shared" si="16"/>
+        <v>64.320000000000007</v>
+      </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
@@ -4918,7 +4996,7 @@
         <v>57.6</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>360.80000000000007</v>
       </c>
       <c r="R37" s="5">
@@ -4972,7 +5050,10 @@
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="AI37" s="1"/>
+      <c r="AI37" s="1">
+        <f t="shared" si="16"/>
+        <v>77.760000000000005</v>
+      </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
@@ -5021,18 +5102,18 @@
         <v>278</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" ref="L38:L69" si="13">E38-K38</f>
+        <f t="shared" ref="L38:L69" si="18">E38-K38</f>
         <v>-18</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:P69" si="14">E38/5</f>
+        <f t="shared" ref="P38:P69" si="19">E38/5</f>
         <v>52</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>322</v>
       </c>
       <c r="R38" s="5">
@@ -5048,7 +5129,7 @@
         <v>13</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" ref="V38:V69" si="15">F38/P38</f>
+        <f t="shared" ref="V38:V69" si="20">F38/P38</f>
         <v>6.8076923076923075</v>
       </c>
       <c r="W38" s="1">
@@ -5086,7 +5167,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="AI38" s="1"/>
+      <c r="AI38" s="1">
+        <f t="shared" si="16"/>
+        <v>62.400000000000006</v>
+      </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -5137,18 +5221,18 @@
         <v>256</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-11</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>49</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>240</v>
       </c>
       <c r="R39" s="5">
@@ -5164,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.1020408163265305</v>
       </c>
       <c r="W39" s="1">
@@ -5202,7 +5286,10 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="AI39" s="1"/>
+      <c r="AI39" s="1">
+        <f t="shared" si="16"/>
+        <v>58.800000000000004</v>
+      </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -5243,14 +5330,14 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q40" s="13"/>
@@ -5265,7 +5352,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V40" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W40" s="11">
@@ -5346,14 +5433,14 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q41" s="13"/>
@@ -5368,7 +5455,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W41" s="11">
@@ -5459,14 +5546,14 @@
         <v>86</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>15.8</v>
       </c>
       <c r="Q42" s="5"/>
@@ -5481,7 +5568,7 @@
         <v>17.151898734177216</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17.151898734177216</v>
       </c>
       <c r="W42" s="1">
@@ -5519,7 +5606,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="1">
+        <f t="shared" ref="AI42:AI47" si="21">P42*G42*3</f>
+        <v>4.74</v>
+      </c>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -5570,18 +5660,18 @@
         <v>115</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-13</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>20.399999999999999</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" ref="Q43:Q47" si="16">13*P43-F43</f>
+        <f t="shared" ref="Q43:Q47" si="22">13*P43-F43</f>
         <v>38.199999999999989</v>
       </c>
       <c r="R43" s="5">
@@ -5597,7 +5687,7 @@
         <v>13</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.127450980392158</v>
       </c>
       <c r="W43" s="1">
@@ -5635,7 +5725,10 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AI43" s="1"/>
+      <c r="AI43" s="1">
+        <f t="shared" si="21"/>
+        <v>21.419999999999995</v>
+      </c>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
@@ -5686,18 +5779,18 @@
         <v>35</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-15</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="R44" s="5">
@@ -5713,7 +5806,7 @@
         <v>13</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
       <c r="W44" s="1">
@@ -5751,7 +5844,10 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="AI44" s="1"/>
+      <c r="AI44" s="1">
+        <f t="shared" si="21"/>
+        <v>4.8000000000000007</v>
+      </c>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
@@ -5800,18 +5896,18 @@
         <v>38</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-8</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="R45" s="5">
@@ -5827,7 +5923,7 @@
         <v>13</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="W45" s="1">
@@ -5865,7 +5961,10 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="AI45" s="1"/>
+      <c r="AI45" s="1">
+        <f t="shared" si="21"/>
+        <v>7.2000000000000011</v>
+      </c>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
@@ -5916,14 +6015,14 @@
         <v>5.8</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.4630000000000001</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.86739999999999995</v>
       </c>
       <c r="Q46" s="5">
@@ -5943,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.1904542310352926E-2</v>
       </c>
       <c r="W46" s="1">
@@ -5981,7 +6080,10 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AI46" s="1"/>
+      <c r="AI46" s="1">
+        <f t="shared" si="21"/>
+        <v>2.6021999999999998</v>
+      </c>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -6034,18 +6136,18 @@
         <v>139</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>35.200000000000003</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>171.60000000000002</v>
       </c>
       <c r="R47" s="5">
@@ -6061,7 +6163,7 @@
         <v>13</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.125</v>
       </c>
       <c r="W47" s="1">
@@ -6099,7 +6201,10 @@
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="AI47" s="1"/>
+      <c r="AI47" s="1">
+        <f t="shared" si="21"/>
+        <v>36.96</v>
+      </c>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
@@ -6140,14 +6245,14 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q48" s="13"/>
@@ -6162,7 +6267,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V48" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W48" s="11">
@@ -6253,14 +6358,14 @@
         <v>166.298</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.9540000000000077</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>33.650400000000005</v>
       </c>
       <c r="Q49" s="5">
@@ -6281,7 +6386,7 @@
         <v>8.3113722273732265</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.8537729120604807</v>
       </c>
       <c r="W49" s="1">
@@ -6319,7 +6424,10 @@
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AI49" s="1"/>
+      <c r="AI49" s="1">
+        <f t="shared" ref="AI49:AI69" si="23">P49*G49*3</f>
+        <v>100.95120000000001</v>
+      </c>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -6370,14 +6478,14 @@
         <v>10.94</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.14299999999999891</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.1594000000000002</v>
       </c>
       <c r="Q50" s="5"/>
@@ -6392,7 +6500,7 @@
         <v>14.873112901731959</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>14.873112901731959</v>
       </c>
       <c r="W50" s="1">
@@ -6430,7 +6538,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="1"/>
+      <c r="AI50" s="1">
+        <f t="shared" si="23"/>
+        <v>6.4782000000000011</v>
+      </c>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -6477,14 +6588,14 @@
         <v>102.477</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>20.4954</v>
       </c>
       <c r="Q51" s="5">
@@ -6504,7 +6615,7 @@
         <v>4.8791436127130963</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W51" s="1">
@@ -6544,7 +6655,10 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="AI51" s="1"/>
+      <c r="AI51" s="1">
+        <f t="shared" si="23"/>
+        <v>61.486199999999997</v>
+      </c>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -6597,18 +6711,18 @@
         <v>204</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>292</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>99.2</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" ref="Q52:Q68" si="17">13*P52-F52</f>
+        <f t="shared" ref="Q52:Q68" si="24">13*P52-F52</f>
         <v>586.60000000000014</v>
       </c>
       <c r="R52" s="5">
@@ -6624,7 +6738,7 @@
         <v>13.000000000000002</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.086693548387097</v>
       </c>
       <c r="W52" s="1">
@@ -6662,7 +6776,10 @@
         <f t="shared" si="8"/>
         <v>264</v>
       </c>
-      <c r="AI52" s="1"/>
+      <c r="AI52" s="1">
+        <f t="shared" si="23"/>
+        <v>133.92000000000002</v>
+      </c>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
@@ -6713,18 +6830,18 @@
         <v>388</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-19</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>73.8</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>563.4</v>
       </c>
       <c r="R53" s="5">
@@ -6740,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.3658536585365857</v>
       </c>
       <c r="W53" s="1">
@@ -6778,7 +6895,10 @@
         <f t="shared" si="8"/>
         <v>254</v>
       </c>
-      <c r="AI53" s="1"/>
+      <c r="AI53" s="1">
+        <f t="shared" si="23"/>
+        <v>99.63</v>
+      </c>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
@@ -6829,18 +6949,18 @@
         <v>189</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-26</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>32.6</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>46.800000000000011</v>
       </c>
       <c r="R54" s="5">
@@ -6856,7 +6976,7 @@
         <v>13</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.564417177914111</v>
       </c>
       <c r="W54" s="1">
@@ -6894,7 +7014,10 @@
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="AI54" s="1"/>
+      <c r="AI54" s="1">
+        <f t="shared" si="23"/>
+        <v>44.010000000000005</v>
+      </c>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
@@ -6945,14 +7068,14 @@
         <v>35</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
       <c r="Q55" s="5">
@@ -6972,7 +7095,7 @@
         <v>10</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="W55" s="1">
@@ -7010,7 +7133,10 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="AI55" s="1"/>
+      <c r="AI55" s="1">
+        <f t="shared" si="23"/>
+        <v>7.92</v>
+      </c>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
@@ -7061,18 +7187,18 @@
         <v>32.5</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.49399999999999977</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.4012000000000002</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>35.444600000000008</v>
       </c>
       <c r="R56" s="5">
@@ -7088,7 +7214,7 @@
         <v>13.000000000000002</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.462819471349122</v>
       </c>
       <c r="W56" s="1">
@@ -7126,7 +7252,10 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AI56" s="1"/>
+      <c r="AI56" s="1">
+        <f t="shared" si="23"/>
+        <v>19.203600000000002</v>
+      </c>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
@@ -7177,14 +7306,14 @@
         <v>65</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>12.4</v>
       </c>
       <c r="Q57" s="5"/>
@@ -7199,7 +7328,7 @@
         <v>24.193548387096772</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>24.193548387096772</v>
       </c>
       <c r="W57" s="1">
@@ -7237,7 +7366,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI57" s="1"/>
+      <c r="AI57" s="1">
+        <f t="shared" si="23"/>
+        <v>3.7200000000000006</v>
+      </c>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
@@ -7288,14 +7420,14 @@
         <v>71.8</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.9840000000000089</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>15.1568</v>
       </c>
       <c r="Q58" s="5">
@@ -7316,7 +7448,7 @@
         <v>6.4391560223793931</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.4598464055737352</v>
       </c>
       <c r="W58" s="1">
@@ -7356,7 +7488,10 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AI58" s="1"/>
+      <c r="AI58" s="1">
+        <f t="shared" si="23"/>
+        <v>45.470399999999998</v>
+      </c>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
@@ -7407,14 +7542,14 @@
         <v>12.4</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.47199999999999953</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.3856000000000002</v>
       </c>
       <c r="Q59" s="5">
@@ -7433,7 +7568,7 @@
         <v>0.38271294433266262</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.38271294433266262</v>
       </c>
       <c r="W59" s="1">
@@ -7473,7 +7608,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI59" s="1"/>
+      <c r="AI59" s="1">
+        <f t="shared" si="23"/>
+        <v>7.1568000000000005</v>
+      </c>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
@@ -7524,14 +7662,14 @@
         <v>2</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="Q60" s="5"/>
@@ -7546,7 +7684,7 @@
         <v>200</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="W60" s="1">
@@ -7584,7 +7722,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI60" s="1"/>
+      <c r="AI60" s="1">
+        <f t="shared" si="23"/>
+        <v>0.36</v>
+      </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -7635,14 +7776,14 @@
         <v>16</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.8</v>
       </c>
       <c r="Q61" s="5"/>
@@ -7657,7 +7798,7 @@
         <v>13.928571428571429</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>13.928571428571429</v>
       </c>
       <c r="W61" s="1">
@@ -7695,7 +7836,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI61" s="1"/>
+      <c r="AI61" s="1">
+        <f t="shared" si="23"/>
+        <v>5.04</v>
+      </c>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
@@ -7744,14 +7888,14 @@
         <v>14</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.8</v>
       </c>
       <c r="Q62" s="5">
@@ -7770,7 +7914,7 @@
         <v>14.285714285714286</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12.142857142857144</v>
       </c>
       <c r="W62" s="1">
@@ -7808,7 +7952,10 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AI62" s="1"/>
+      <c r="AI62" s="1">
+        <f t="shared" si="23"/>
+        <v>5.04</v>
+      </c>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
@@ -7859,14 +8006,14 @@
         <v>9</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
       <c r="Q63" s="5"/>
@@ -7881,7 +8028,7 @@
         <v>117.5</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>117.5</v>
       </c>
       <c r="W63" s="1">
@@ -7919,7 +8066,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI63" s="1"/>
+      <c r="AI63" s="1">
+        <f t="shared" si="23"/>
+        <v>0.72</v>
+      </c>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
@@ -7970,14 +8120,14 @@
         <v>148</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="Q64" s="5">
@@ -7997,7 +8147,7 @@
         <v>10</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.6551724137931034</v>
       </c>
       <c r="W64" s="1">
@@ -8037,7 +8187,10 @@
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="AI64" s="1"/>
+      <c r="AI64" s="1">
+        <f t="shared" si="23"/>
+        <v>34.800000000000004</v>
+      </c>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
@@ -8088,18 +8241,18 @@
         <v>83</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-18</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="R65" s="5">
@@ -8115,7 +8268,7 @@
         <v>13</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.692307692307692</v>
       </c>
       <c r="W65" s="1">
@@ -8153,7 +8306,10 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AI65" s="1"/>
+      <c r="AI65" s="1">
+        <f t="shared" si="23"/>
+        <v>12.870000000000001</v>
+      </c>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
@@ -8204,14 +8360,14 @@
         <v>78</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>15.6</v>
       </c>
       <c r="Q66" s="5">
@@ -8231,7 +8387,7 @@
         <v>11</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.2692307692307692</v>
       </c>
       <c r="W66" s="1">
@@ -8269,7 +8425,10 @@
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="AI66" s="1"/>
+      <c r="AI66" s="1">
+        <f t="shared" si="23"/>
+        <v>16.38</v>
+      </c>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
@@ -8318,14 +8477,14 @@
         <v>2</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-8</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-1.2</v>
       </c>
       <c r="Q67" s="5"/>
@@ -8340,7 +8499,7 @@
         <v>-125</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-125</v>
       </c>
       <c r="W67" s="1">
@@ -8378,7 +8537,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI67" s="1"/>
+      <c r="AI67" s="1">
+        <f t="shared" si="23"/>
+        <v>-1.26</v>
+      </c>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
@@ -8431,18 +8593,18 @@
         <v>138</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>269</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>81.400000000000006</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>661.2</v>
       </c>
       <c r="R68" s="5">
@@ -8458,7 +8620,7 @@
         <v>13</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.8771498771498765</v>
       </c>
       <c r="W68" s="1">
@@ -8496,7 +8658,10 @@
         <f t="shared" si="8"/>
         <v>231</v>
       </c>
-      <c r="AI68" s="1"/>
+      <c r="AI68" s="1">
+        <f t="shared" si="23"/>
+        <v>85.47</v>
+      </c>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
@@ -8547,14 +8712,14 @@
         <v>3</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="Q69" s="5"/>
@@ -8569,7 +8734,7 @@
         <v>320</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>320</v>
       </c>
       <c r="W69" s="1">
@@ -8607,7 +8772,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI69" s="1"/>
+      <c r="AI69" s="1">
+        <f t="shared" si="23"/>
+        <v>0.18</v>
+      </c>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
@@ -8648,14 +8816,14 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11">
-        <f t="shared" ref="L70:L101" si="18">E70-K70</f>
+        <f t="shared" ref="L70:L101" si="25">E70-K70</f>
         <v>0</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11">
-        <f t="shared" ref="P70:P102" si="19">E70/5</f>
+        <f t="shared" ref="P70:P102" si="26">E70/5</f>
         <v>0</v>
       </c>
       <c r="Q70" s="13"/>
@@ -8670,7 +8838,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V70" s="11" t="e">
-        <f t="shared" ref="V70:V102" si="20">F70/P70</f>
+        <f t="shared" ref="V70:V102" si="27">F70/P70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W70" s="11">
@@ -8751,29 +8919,29 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q71" s="13"/>
       <c r="R71" s="5">
-        <f t="shared" ref="R71:R102" si="21">Q71</f>
+        <f t="shared" ref="R71:R102" si="28">Q71</f>
         <v>0</v>
       </c>
       <c r="S71" s="13"/>
       <c r="T71" s="11"/>
       <c r="U71" s="1" t="e">
-        <f t="shared" ref="U71:U102" si="22">(F71+R71)/P71</f>
+        <f t="shared" ref="U71:U102" si="29">(F71+R71)/P71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V71" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W71" s="11">
@@ -8810,7 +8978,7 @@
         <v>43</v>
       </c>
       <c r="AH71" s="1">
-        <f t="shared" ref="AH71:AH102" si="23">ROUND(G71*R71,0)</f>
+        <f t="shared" ref="AH71:AH102" si="30">ROUND(G71*R71,0)</f>
         <v>0</v>
       </c>
       <c r="AI71" s="1"/>
@@ -8854,29 +9022,29 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q72" s="13"/>
       <c r="R72" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S72" s="13"/>
       <c r="T72" s="11"/>
       <c r="U72" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V72" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W72" s="11">
@@ -8913,7 +9081,7 @@
         <v>70</v>
       </c>
       <c r="AH72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI72" s="1"/>
@@ -8957,29 +9125,29 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q73" s="13"/>
       <c r="R73" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S73" s="13"/>
       <c r="T73" s="11"/>
       <c r="U73" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V73" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W73" s="11">
@@ -9016,7 +9184,7 @@
         <v>70</v>
       </c>
       <c r="AH73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI73" s="1"/>
@@ -9060,29 +9228,29 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q74" s="13"/>
       <c r="R74" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S74" s="13"/>
       <c r="T74" s="11"/>
       <c r="U74" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V74" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W74" s="11">
@@ -9119,7 +9287,7 @@
         <v>119</v>
       </c>
       <c r="AH74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI74" s="1"/>
@@ -9169,29 +9337,29 @@
         <v>1.45</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-1.45</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S75" s="5"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V75" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W75" s="1">
@@ -9228,10 +9396,13 @@
         <v>121</v>
       </c>
       <c r="AH75" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI75" s="1"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI75" s="1">
+        <f>P75*G75*3</f>
+        <v>0</v>
+      </c>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
@@ -9272,29 +9443,29 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q76" s="13"/>
       <c r="R76" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S76" s="13"/>
       <c r="T76" s="11"/>
       <c r="U76" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V76" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W76" s="11">
@@ -9331,7 +9502,7 @@
         <v>43</v>
       </c>
       <c r="AH76" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI76" s="1"/>
@@ -9375,29 +9546,29 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q77" s="13"/>
       <c r="R77" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S77" s="13"/>
       <c r="T77" s="11"/>
       <c r="U77" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V77" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W77" s="11">
@@ -9434,7 +9605,7 @@
         <v>124</v>
       </c>
       <c r="AH77" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI77" s="1"/>
@@ -9488,22 +9659,22 @@
         <v>47.8</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-9.7659999999999982</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>7.6067999999999998</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" ref="Q78:Q80" si="24">13*P78-F78</f>
+        <f t="shared" ref="Q78:Q80" si="31">13*P78-F78</f>
         <v>25.122399999999985</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>25.122399999999985</v>
       </c>
       <c r="S78" s="5">
@@ -9511,11 +9682,11 @@
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>12.999999999999998</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>9.6973760319713946</v>
       </c>
       <c r="W78" s="1">
@@ -9550,10 +9721,13 @@
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="1">
+        <f t="shared" ref="AI78:AI83" si="32">P78*G78*3</f>
+        <v>22.820399999999999</v>
+      </c>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
@@ -9604,14 +9778,14 @@
         <v>714.13400000000001</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.3439999999999372</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>143.09559999999999</v>
       </c>
       <c r="Q79" s="5">
@@ -9628,11 +9802,11 @@
         <v>155</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>11.520570863115289</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.8334022849060352</v>
       </c>
       <c r="W79" s="1">
@@ -9667,10 +9841,13 @@
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1100</v>
       </c>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="1">
+        <f t="shared" si="32"/>
+        <v>429.28679999999997</v>
+      </c>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
@@ -9721,22 +9898,22 @@
         <v>35.4</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-0.49000000000000199</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.9819999999999993</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>26.079999999999984</v>
       </c>
       <c r="R80" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>26.079999999999984</v>
       </c>
       <c r="S80" s="5">
@@ -9744,11 +9921,11 @@
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>9.2646806072758547</v>
       </c>
       <c r="W80" s="1">
@@ -9783,10 +9960,13 @@
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>26</v>
       </c>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="1">
+        <f t="shared" si="32"/>
+        <v>20.945999999999998</v>
+      </c>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
@@ -9833,14 +10013,14 @@
         <v>12</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-3</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1.8</v>
       </c>
       <c r="Q81" s="5">
@@ -9848,7 +10028,7 @@
         <v>14.4</v>
       </c>
       <c r="R81" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>14.4</v>
       </c>
       <c r="S81" s="5">
@@ -9856,11 +10036,11 @@
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W81" s="1">
@@ -9897,10 +10077,13 @@
         <v>129</v>
       </c>
       <c r="AH81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="AI81" s="1"/>
+      <c r="AI81" s="1">
+        <f t="shared" si="32"/>
+        <v>2.7</v>
+      </c>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
@@ -9951,14 +10134,14 @@
         <v>112</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-5</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>21.4</v>
       </c>
       <c r="Q82" s="5">
@@ -9966,7 +10149,7 @@
         <v>164.79999999999995</v>
       </c>
       <c r="R82" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>164.79999999999995</v>
       </c>
       <c r="S82" s="5">
@@ -9974,11 +10157,11 @@
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>11.999999999999998</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>4.2990654205607477</v>
       </c>
       <c r="W82" s="1">
@@ -10013,10 +10196,13 @@
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>82</v>
       </c>
-      <c r="AI82" s="1"/>
+      <c r="AI82" s="1">
+        <f t="shared" si="32"/>
+        <v>32.099999999999994</v>
+      </c>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
       <c r="AL82" s="1"/>
@@ -10067,29 +10253,29 @@
         <v>6</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S83" s="5"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
       <c r="W83" s="1">
@@ -10124,10 +10310,13 @@
       </c>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI83" s="1"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
       <c r="AL83" s="1"/>
@@ -10168,29 +10357,29 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q84" s="13"/>
       <c r="R84" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S84" s="13"/>
       <c r="T84" s="11"/>
       <c r="U84" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V84" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W84" s="11">
@@ -10227,7 +10416,7 @@
         <v>43</v>
       </c>
       <c r="AH84" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI84" s="1"/>
@@ -10271,29 +10460,29 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q85" s="13"/>
       <c r="R85" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S85" s="13"/>
       <c r="T85" s="11"/>
       <c r="U85" s="1" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V85" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W85" s="11">
@@ -10330,7 +10519,7 @@
         <v>43</v>
       </c>
       <c r="AH85" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI85" s="1"/>
@@ -10384,29 +10573,29 @@
         <v>58</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-32</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>5.2</v>
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S86" s="5"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>37.5</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>37.5</v>
       </c>
       <c r="W86" s="1">
@@ -10441,10 +10630,13 @@
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI86" s="1"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI86" s="1">
+        <f t="shared" ref="AI86:AI97" si="33">P86*G86*3</f>
+        <v>5.4599999999999991</v>
+      </c>
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
@@ -10495,22 +10687,22 @@
         <v>61</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-5</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>11.2</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" ref="Q87:Q94" si="25">13*P87-F87</f>
+        <f t="shared" ref="Q87:Q94" si="34">13*P87-F87</f>
         <v>29.599999999999994</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>29.599999999999994</v>
       </c>
       <c r="S87" s="5">
@@ -10518,11 +10710,11 @@
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>10.357142857142858</v>
       </c>
       <c r="W87" s="1">
@@ -10557,10 +10749,13 @@
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
-      <c r="AI87" s="1"/>
+      <c r="AI87" s="1">
+        <f t="shared" si="33"/>
+        <v>10.08</v>
+      </c>
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
@@ -10611,29 +10806,29 @@
         <v>13</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-22</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-1.8</v>
       </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S88" s="5"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-33.888888888888886</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-33.888888888888886</v>
       </c>
       <c r="W88" s="1">
@@ -10668,10 +10863,13 @@
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI88" s="1"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI88" s="1">
+        <f t="shared" si="33"/>
+        <v>-0.64800000000000002</v>
+      </c>
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
@@ -10722,14 +10920,14 @@
         <v>102</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-3</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>19.8</v>
       </c>
       <c r="Q89" s="5">
@@ -10737,7 +10935,7 @@
         <v>162.60000000000002</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>162.60000000000002</v>
       </c>
       <c r="S89" s="5">
@@ -10745,11 +10943,11 @@
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.7878787878787876</v>
       </c>
       <c r="W89" s="1">
@@ -10784,10 +10982,13 @@
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
-      <c r="AI89" s="1"/>
+      <c r="AI89" s="1">
+        <f t="shared" si="33"/>
+        <v>4.1580000000000004</v>
+      </c>
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
@@ -10836,29 +11037,29 @@
         <v>20</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q90" s="5"/>
       <c r="R90" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S90" s="5"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>47.727272727272727</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>47.727272727272727</v>
       </c>
       <c r="W90" s="1">
@@ -10893,10 +11094,13 @@
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI90" s="1"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI90" s="1">
+        <f t="shared" si="33"/>
+        <v>0.79200000000000004</v>
+      </c>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
@@ -10947,14 +11151,14 @@
         <v>69</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-13</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>11.2</v>
       </c>
       <c r="Q91" s="5">
@@ -10962,7 +11166,7 @@
         <v>85.199999999999989</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>85.199999999999989</v>
       </c>
       <c r="S91" s="5">
@@ -10970,11 +11174,11 @@
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.3928571428571432</v>
       </c>
       <c r="W91" s="1">
@@ -11009,10 +11213,13 @@
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="AI91" s="1"/>
+      <c r="AI91" s="1">
+        <f t="shared" si="33"/>
+        <v>2.3520000000000003</v>
+      </c>
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
@@ -11063,22 +11270,22 @@
         <v>70</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-32</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>7.6</v>
       </c>
       <c r="Q92" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="R92" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="S92" s="5">
@@ -11086,11 +11293,11 @@
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>11.842105263157896</v>
       </c>
       <c r="W92" s="1">
@@ -11125,10 +11332,13 @@
       </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI92" s="1"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI92" s="1">
+        <f t="shared" si="33"/>
+        <v>1.1400000000000001</v>
+      </c>
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
@@ -11179,14 +11389,14 @@
         <v>136</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-20</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>23.2</v>
       </c>
       <c r="Q93" s="5">
@@ -11194,7 +11404,7 @@
         <v>197</v>
       </c>
       <c r="R93" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>197</v>
       </c>
       <c r="S93" s="5">
@@ -11202,11 +11412,11 @@
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.5086206896551724</v>
       </c>
       <c r="W93" s="1">
@@ -11241,10 +11451,13 @@
       </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
-      <c r="AI93" s="1"/>
+      <c r="AI93" s="1">
+        <f t="shared" si="33"/>
+        <v>3.8280000000000003</v>
+      </c>
       <c r="AJ93" s="1"/>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
@@ -11295,22 +11508,22 @@
         <v>62</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-5</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>11.4</v>
       </c>
       <c r="Q94" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>76.200000000000017</v>
       </c>
       <c r="R94" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>76.200000000000017</v>
       </c>
       <c r="S94" s="5">
@@ -11318,11 +11531,11 @@
       </c>
       <c r="T94" s="1"/>
       <c r="U94" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>13.000000000000002</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="W94" s="1">
@@ -11357,10 +11570,13 @@
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="AI94" s="1"/>
+      <c r="AI94" s="1">
+        <f t="shared" si="33"/>
+        <v>1.881</v>
+      </c>
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
@@ -11411,22 +11627,22 @@
         <v>95</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-16</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>15.8</v>
       </c>
       <c r="Q95" s="5">
-        <f t="shared" ref="Q95:Q97" si="26">11*P95-F95</f>
+        <f t="shared" ref="Q95:Q97" si="35">11*P95-F95</f>
         <v>120.80000000000001</v>
       </c>
       <c r="R95" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>120.80000000000001</v>
       </c>
       <c r="S95" s="5">
@@ -11434,11 +11650,11 @@
       </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.3544303797468351</v>
       </c>
       <c r="W95" s="1">
@@ -11473,10 +11689,13 @@
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="AI95" s="1"/>
+      <c r="AI95" s="1">
+        <f t="shared" si="33"/>
+        <v>2.6070000000000002</v>
+      </c>
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
@@ -11525,22 +11744,22 @@
         <v>121</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>204</v>
       </c>
       <c r="R96" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>204</v>
       </c>
       <c r="S96" s="5">
@@ -11548,11 +11767,11 @@
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="W96" s="1">
@@ -11589,10 +11808,13 @@
         <v>145</v>
       </c>
       <c r="AH96" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
-      <c r="AI96" s="1"/>
+      <c r="AI96" s="1">
+        <f t="shared" si="33"/>
+        <v>5.0400000000000009</v>
+      </c>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
@@ -11643,22 +11865,22 @@
         <v>92</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-2</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="Q97" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>143</v>
       </c>
       <c r="R97" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>143</v>
       </c>
       <c r="S97" s="5">
@@ -11666,11 +11888,11 @@
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.0555555555555554</v>
       </c>
       <c r="W97" s="1">
@@ -11707,10 +11929,13 @@
         <v>145</v>
       </c>
       <c r="AH97" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
-      <c r="AI97" s="1"/>
+      <c r="AI97" s="1">
+        <f t="shared" si="33"/>
+        <v>3.7800000000000007</v>
+      </c>
       <c r="AJ97" s="1"/>
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
@@ -11761,29 +11986,29 @@
         <v>49</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="Q98" s="13"/>
       <c r="R98" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S98" s="13"/>
       <c r="T98" s="11"/>
       <c r="U98" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-8.3673469387755102</v>
       </c>
       <c r="V98" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-8.3673469387755102</v>
       </c>
       <c r="W98" s="11">
@@ -11818,7 +12043,7 @@
       </c>
       <c r="AG98" s="11"/>
       <c r="AH98" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI98" s="1"/>
@@ -11874,29 +12099,29 @@
         <v>314</v>
       </c>
       <c r="L99" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>61.2</v>
       </c>
       <c r="Q99" s="13"/>
       <c r="R99" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S99" s="13"/>
       <c r="T99" s="11"/>
       <c r="U99" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-0.68627450980392157</v>
       </c>
       <c r="V99" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-0.68627450980392157</v>
       </c>
       <c r="W99" s="11">
@@ -11931,7 +12156,7 @@
       </c>
       <c r="AG99" s="11"/>
       <c r="AH99" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI99" s="1"/>
@@ -11987,29 +12212,29 @@
         <v>283</v>
       </c>
       <c r="L100" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-9</v>
       </c>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>54.8</v>
       </c>
       <c r="Q100" s="13"/>
       <c r="R100" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S100" s="13"/>
       <c r="T100" s="11"/>
       <c r="U100" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-1.8248175182481752</v>
       </c>
       <c r="V100" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-1.8248175182481752</v>
       </c>
       <c r="W100" s="11">
@@ -12044,7 +12269,7 @@
       </c>
       <c r="AG100" s="11"/>
       <c r="AH100" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI100" s="1"/>
@@ -12100,29 +12325,29 @@
         <v>60</v>
       </c>
       <c r="L101" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-2.5900000000000034</v>
       </c>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>11.481999999999999</v>
       </c>
       <c r="Q101" s="13"/>
       <c r="R101" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S101" s="13"/>
       <c r="T101" s="11"/>
       <c r="U101" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-5</v>
       </c>
       <c r="V101" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-5</v>
       </c>
       <c r="W101" s="11">
@@ -12157,7 +12382,7 @@
       </c>
       <c r="AG101" s="11"/>
       <c r="AH101" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI101" s="1"/>
@@ -12209,29 +12434,29 @@
         <v>5.6</v>
       </c>
       <c r="L102" s="11">
-        <f t="shared" ref="L102" si="27">E102-K102</f>
+        <f t="shared" ref="L102" si="36">E102-K102</f>
         <v>-1.2629999999999999</v>
       </c>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.86739999999999995</v>
       </c>
       <c r="Q102" s="13"/>
       <c r="R102" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S102" s="13"/>
       <c r="T102" s="11"/>
       <c r="U102" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-5</v>
       </c>
       <c r="V102" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-5</v>
       </c>
       <c r="W102" s="11">
@@ -12266,7 +12491,7 @@
       </c>
       <c r="AG102" s="11"/>
       <c r="AH102" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI102" s="1"/>
